--- a/Cost+Benefit+Analysis.xlsx
+++ b/Cost+Benefit+Analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed7c9e67852ffea5/RAM/Resumes/Fraud Analytics/Credit card fraud detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{610EE312-35E8-498B-9EB7-22E855B8C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B65442E-0E18-4694-A301-EFBDB9FE4B4B}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{610EE312-35E8-498B-9EB7-22E855B8C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{108C9A71-8815-4DF5-B9F8-F6424919DE20}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part I" sheetId="2" r:id="rId1"/>
     <sheet name="Part II - LR model" sheetId="6" r:id="rId2"/>
-    <sheet name="Part II - XGBoost model" sheetId="7" r:id="rId3"/>
+    <sheet name="Part II - RF model" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -101,10 +101,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.000_ ;_-[$$-409]* \-#,##0.000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -316,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,9 +368,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,6 +378,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -702,7 +705,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,11 +718,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -784,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B551925-81D0-4EE5-B767-A17160BD1889}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,11 +804,11 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -837,8 +840,8 @@
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22">
-        <v>58838</v>
+      <c r="D5" s="26">
+        <v>55964.41</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -861,7 +864,7 @@
       </c>
       <c r="D7" s="21">
         <f>D5*D6</f>
-        <v>88257</v>
+        <v>83946.615000000005</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -871,8 +874,8 @@
       <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
-        <v>47.125</v>
+      <c r="D8" s="27">
+        <v>26.207999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -884,7 +887,7 @@
       </c>
       <c r="D9" s="21">
         <f>D8*'Part I'!D6</f>
-        <v>25007.418474999999</v>
+        <v>13907.573971199998</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -896,7 +899,7 @@
       </c>
       <c r="D10" s="21">
         <f>D7+D9</f>
-        <v>113264.418475</v>
+        <v>97854.188971199997</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -906,9 +909,9 @@
       <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <f>D4-D10</f>
-        <v>100127.79699999998</v>
+        <v>115538.02650379998</v>
       </c>
     </row>
   </sheetData>
@@ -920,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC41BAA-6B52-4CB0-BDC6-2952BC45E503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89886544-C596-4D40-901F-CE7A9DFFCB48}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,11 +943,11 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -976,8 +979,8 @@
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22">
-        <v>346.5</v>
+      <c r="D5" s="26">
+        <v>1519.9580000000001</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1000,7 +1003,7 @@
       </c>
       <c r="D7" s="21">
         <f>D5*D6</f>
-        <v>519.75</v>
+        <v>2279.9369999999999</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -1010,8 +1013,8 @@
       <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
-        <v>446.625</v>
+      <c r="D8" s="27">
+        <v>15.125</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -1021,9 +1024,9 @@
       <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="28">
         <f>D8*'Part I'!D6</f>
-        <v>237006.64777499999</v>
+        <v>8026.253674999999</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1035,7 +1038,7 @@
       </c>
       <c r="D10" s="21">
         <f>D7+D9</f>
-        <v>237526.39777499999</v>
+        <v>10306.190674999998</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1045,9 +1048,9 @@
       <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="23">
-        <f>D4-D9</f>
-        <v>-23614.432300000015</v>
+      <c r="D11" s="22">
+        <f>D4-D10</f>
+        <v>203086.02479999998</v>
       </c>
     </row>
   </sheetData>

--- a/Cost+Benefit+Analysis.xlsx
+++ b/Cost+Benefit+Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed7c9e67852ffea5/RAM/My Personal projects/Fraud Analytics/Credit card fraud detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{610EE312-35E8-498B-9EB7-22E855B8C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CEAA276-980F-427E-99B1-60E27306465B}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{610EE312-35E8-498B-9EB7-22E855B8C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FEAECDA-853F-469D-BCE8-C6B0E56B0371}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.000_ ;_-[$$-409]* \-#,##0.000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -318,7 +318,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,8 +374,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,7 +711,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,11 +724,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -757,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="20">
-        <v>402.125</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -768,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="18">
-        <v>530.66139999999996</v>
+        <v>530.66</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -791,7 +794,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,11 +810,11 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -833,7 +836,7 @@
       </c>
       <c r="D4" s="19">
         <f>'Part I'!D5*'Part I'!D6</f>
-        <v>213392.21547499998</v>
+        <v>213325.31999999998</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -890,7 +893,7 @@
       </c>
       <c r="D9" s="21">
         <f>D8*'Part I'!D6</f>
-        <v>14083.753555999998</v>
+        <v>14083.716399999999</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -902,7 +905,7 @@
       </c>
       <c r="D10" s="21">
         <f>D7+D9</f>
-        <v>97965.688555999994</v>
+        <v>97965.651400000002</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -914,13 +917,13 @@
       </c>
       <c r="D11" s="22">
         <f>D4-D10</f>
-        <v>115426.52691899998</v>
+        <v>115359.66859999998</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <f>D11/D4</f>
-        <v>0.5409125476394091</v>
+        <v>0.54076875918901701</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +939,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,11 +955,11 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -978,7 +981,7 @@
       </c>
       <c r="D4" s="19">
         <f>'Part I'!D5*'Part I'!D6</f>
-        <v>213392.21547499998</v>
+        <v>213325.31999999998</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -988,8 +991,8 @@
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23">
-        <v>1408.17</v>
+      <c r="D5" s="26">
+        <v>1408</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1012,7 +1015,7 @@
       </c>
       <c r="D7" s="21">
         <f>D5*D6</f>
-        <v>2112.2550000000001</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -1022,8 +1025,8 @@
       <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24">
-        <v>13.83</v>
+      <c r="D8" s="27">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -1033,9 +1036,9 @@
       <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="25">
-        <f>D8*'Part I'!D6</f>
-        <v>7339.0471619999998</v>
+      <c r="D9" s="21">
+        <f>D8*530.66</f>
+        <v>7429.24</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1047,7 +1050,7 @@
       </c>
       <c r="D10" s="21">
         <f>D7+D9</f>
-        <v>9451.302162</v>
+        <v>9541.24</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1059,13 +1062,13 @@
       </c>
       <c r="D11" s="22">
         <f>D4-D10</f>
-        <v>203940.91331299997</v>
+        <v>203784.08</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <f>D11/D4</f>
-        <v>0.95570924580841954</v>
+        <v>0.95527375747051502</v>
       </c>
     </row>
   </sheetData>
